--- a/biology/Zoologie/Hylaeus_lactiferus/Hylaeus_lactiferus.xlsx
+++ b/biology/Zoologie/Hylaeus_lactiferus/Hylaeus_lactiferus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylaeus lactiferus (protonyme Pharohylaeus lactiferus) est une espèce d'abeilles masquées (ou abeilles plâtrières) de la famille des Colletidae et du genre Hylaeus, endémique d'Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis la description de six spécimens de Pharohylaeus lactiferus en 1923, aucune autre observation n'avait été rapportée, amenant les chercheurs à penser que cette espèce était éteinte[1]. Néanmoins, en 2021, James Borey, entomologiste et doctorant à l'université australienne Flinders redécouvre trois populations de P. lactiferus le long de la côte est de l'Australie, au niveau du Queensland et du nord de la Nouvelle-Galles du Sud, dans le cadre de sa thèse sur les relations entre abeilles nichant au sol[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la description de six spécimens de Pharohylaeus lactiferus en 1923, aucune autre observation n'avait été rapportée, amenant les chercheurs à penser que cette espèce était éteinte. Néanmoins, en 2021, James Borey, entomologiste et doctorant à l'université australienne Flinders redécouvre trois populations de P. lactiferus le long de la côte est de l'Australie, au niveau du Queensland et du nord de la Nouvelle-Galles du Sud, dans le cadre de sa thèse sur les relations entre abeilles nichant au sol.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon James Borey, « P. lactiferus fait partie d’un groupe appelé les abeilles masquées qui sont relativement glabres et ont des marques faciales assez remarquables », ce qui les rend « faciles à distinguer des autres abeilles »[2]. Elle a la même taille que l'abeille européenne[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon James Borey, « P. lactiferus fait partie d’un groupe appelé les abeilles masquées qui sont relativement glabres et ont des marques faciales assez remarquables », ce qui les rend « faciles à distinguer des autres abeilles ». Elle a la même taille que l'abeille européenne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une abeille endémique australienne. D’après les premières analyses de James Borey, Pharohylaeus lactiferus n'évolue qu'à la périphérie des forêts tropicales et subtropicales[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une abeille endémique australienne. D’après les premières analyses de James Borey, Pharohylaeus lactiferus n'évolue qu'à la périphérie des forêts tropicales et subtropicales.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Hylaeus lactiferus (Cockerell, 1910). L'espèce a été initialement classée dans le genre Pharohylaeus sous le protonyme Pharohylaeus lactiferus, par Theodore Dru Alison Cockerell, en 1910[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Hylaeus lactiferus (Cockerell, 1910). L'espèce a été initialement classée dans le genre Pharohylaeus sous le protonyme Pharohylaeus lactiferus, par Theodore Dru Alison Cockerell, en 1910.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'étude menée par l'université Flinders, cette abeille doit faire face à la perte de son habitat, à la fragmentation des forêts, aux incendies et au changement climatique[1]. Elle serait d'autant plus menacée du fait d'une spécialisation florale poussée, ne pollinisant que deux espèces de plantes : Stenocarpus sinuatus et Brachychiton acerifolius[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'étude menée par l'université Flinders, cette abeille doit faire face à la perte de son habitat, à la fragmentation des forêts, aux incendies et au changement climatique. Elle serait d'autant plus menacée du fait d'une spécialisation florale poussée, ne pollinisant que deux espèces de plantes : Stenocarpus sinuatus et Brachychiton acerifolius.
 </t>
         </is>
       </c>
